--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam22</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H2">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I2">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J2">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N2">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q2">
-        <v>0.1947397750222222</v>
+        <v>37.36577259595533</v>
       </c>
       <c r="R2">
-        <v>1.7526579752</v>
+        <v>336.2919533635979</v>
       </c>
       <c r="S2">
-        <v>0.0009656153300497012</v>
+        <v>0.1059613563063005</v>
       </c>
       <c r="T2">
-        <v>0.0009656153300497012</v>
+        <v>0.1059613563063005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H3">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I3">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J3">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.582076</v>
       </c>
       <c r="O3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q3">
-        <v>0.1171398297666667</v>
+        <v>39.866609749912</v>
       </c>
       <c r="R3">
-        <v>1.0542584679</v>
+        <v>358.799487749208</v>
       </c>
       <c r="S3">
-        <v>0.0005808367364561152</v>
+        <v>0.1130531967347016</v>
       </c>
       <c r="T3">
-        <v>0.0005808367364561151</v>
+        <v>0.1130531967347016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H4">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I4">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J4">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N4">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O4">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P4">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q4">
-        <v>0.1449164321611111</v>
+        <v>128.5754335988406</v>
       </c>
       <c r="R4">
-        <v>1.30424788945</v>
+        <v>1157.178902389566</v>
       </c>
       <c r="S4">
-        <v>0.0007185667563542593</v>
+        <v>0.3646124885232152</v>
       </c>
       <c r="T4">
-        <v>0.0007185667563542592</v>
+        <v>0.3646124885232152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H5">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I5">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J5">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N5">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q5">
-        <v>66.27647170958933</v>
+        <v>26.65760181077</v>
       </c>
       <c r="R5">
-        <v>596.488245386304</v>
+        <v>239.91841629693</v>
       </c>
       <c r="S5">
-        <v>0.3286312572615526</v>
+        <v>0.0755952693467989</v>
       </c>
       <c r="T5">
-        <v>0.3286312572615526</v>
+        <v>0.07559526934679893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H6">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I6">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J6">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.582076</v>
       </c>
       <c r="O6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q6">
-        <v>39.866609749912</v>
+        <v>28.44175657092</v>
       </c>
       <c r="R6">
-        <v>358.799487749208</v>
+        <v>255.97580913828</v>
       </c>
       <c r="S6">
-        <v>0.1976782068646791</v>
+        <v>0.08065475146403207</v>
       </c>
       <c r="T6">
-        <v>0.1976782068646791</v>
+        <v>0.08065475146403207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H7">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I7">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J7">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N7">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O7">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P7">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q7">
-        <v>49.31991841566266</v>
+        <v>91.72867234909</v>
       </c>
       <c r="R7">
-        <v>443.8792657409639</v>
+        <v>825.55805114181</v>
       </c>
       <c r="S7">
-        <v>0.2445523483506641</v>
+        <v>0.2601229376249517</v>
       </c>
       <c r="T7">
-        <v>0.244552348350664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H8">
-        <v>9.117421</v>
-      </c>
-      <c r="I8">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J8">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.418229333333334</v>
-      </c>
-      <c r="N8">
-        <v>19.254688</v>
-      </c>
-      <c r="O8">
-        <v>0.4263166911921744</v>
-      </c>
-      <c r="P8">
-        <v>0.4263166911921744</v>
-      </c>
-      <c r="Q8">
-        <v>19.50589963551645</v>
-      </c>
-      <c r="R8">
-        <v>175.553096719648</v>
-      </c>
-      <c r="S8">
-        <v>0.09671981860057212</v>
-      </c>
-      <c r="T8">
-        <v>0.09671981860057212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H9">
-        <v>9.117421</v>
-      </c>
-      <c r="I9">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J9">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.860692</v>
-      </c>
-      <c r="N9">
-        <v>11.582076</v>
-      </c>
-      <c r="O9">
-        <v>0.256437929165941</v>
-      </c>
-      <c r="P9">
-        <v>0.256437929165941</v>
-      </c>
-      <c r="Q9">
-        <v>11.73318477177733</v>
-      </c>
-      <c r="R9">
-        <v>105.598662945996</v>
-      </c>
-      <c r="S9">
-        <v>0.05817888556480583</v>
-      </c>
-      <c r="T9">
-        <v>0.05817888556480582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H10">
-        <v>9.117421</v>
-      </c>
-      <c r="I10">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J10">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.776152666666666</v>
-      </c>
-      <c r="N10">
-        <v>14.328458</v>
-      </c>
-      <c r="O10">
-        <v>0.3172453796418847</v>
-      </c>
-      <c r="P10">
-        <v>0.3172453796418846</v>
-      </c>
-      <c r="Q10">
-        <v>14.51539820742422</v>
-      </c>
-      <c r="R10">
-        <v>130.638583866818</v>
-      </c>
-      <c r="S10">
-        <v>0.07197446453486632</v>
-      </c>
-      <c r="T10">
-        <v>0.07197446453486632</v>
+        <v>0.2601229376249518</v>
       </c>
     </row>
   </sheetData>
